--- a/outputs/POMPANO1.xlsx
+++ b/outputs/POMPANO1.xlsx
@@ -426,16 +426,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to attend the ICSE conference and needs to manage the travel arrangements, including obtaining a visa. The conference website is a logical place to look for visa information, as it is directly related to attending the conference. Additionally, ABI's comprehensive information processing style would lead them to gather all necessary details, including travel and visa requirements, from the official source.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Attending" menu is prominently displayed at the top of the page, making it easy for ABI to find. Given ABI's comprehensive information processing style, they are likely to explore the available menus to gather all necessary information. The "Attending" section logically suggests that it contains information relevant to attendees, which would likely include visa and travel information.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or know to click on "Attending" without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on "Attending," ABI will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that ABI is on the right path to finding the necessary visa information. The dropdown menu provides a logical and straightforward way to navigate to the specific information needed. Given ABI's comprehensive information processing style and preference for a process-oriented learning approach, they will recognize that they are making progress towards their goal and will likely proceed by clicking on "Visas and Travel Authorizations" to get the information they need.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option reassures her that she is making progress toward her goal of obtaining visa information for the conference. Given her comprehensive information processing style, this clear and direct path aligns well with her needs.</t>
         </is>
       </c>
     </row>
@@ -452,35 +452,35 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given ABI's comprehensive information processing style, they will logically infer that clicking on this option will lead them to the relevant visa information. This aligns with ABI’s process-oriented learning style, as the dropdown menu provides a clear and direct path to the information they need.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly related to her goal, making it easy for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about arriving in Canada, visa requirements, and the process for obtaining a visa invitation letter. The page includes links to further details about entry requirements and an overview of the Electronic Travel Authorization (ETA). This comprehensive information aligns with Abi's motivation to find visa information and her preference for a thorough understanding of the process, confirming that she is making progress toward her goal and has access to the necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Visa Overview" link is clearly labeled and positioned under the "Arriving in Canada" section, which is directly relevant to Abi's goal of finding visa information. Given her motivation to obtain this information and her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather more detailed information about the visa requirements and process. The clear labeling and context make it evident what she should do next.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While ABI will know they are on the right track because they have landed on the "Visas and Travel Authorizations" page, the information presented is somewhat limited and not entirely comprehensive. The page provides links to additional resources (e.g., "List entry requirements by Countries" and "ETA Overview"), but ABI might find this fragmented approach challenging given their comprehensive information processing style. Additionally, ABI's low computer self-efficacy may cause them to feel uncertain about whether they have all the necessary information without further guidance or a more detailed, consolidated list of steps directly on the page. This could make ABI feel unsure if they have made sufficient progress toward their goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Visa Overview" link is clearly labeled and indicates that it will provide more detailed information about the visa requirements. ABI, with their comprehensive information processing style and preference for a process-oriented learning approach, will recognize that clicking on this link is the next logical step to obtain the necessary visa information. The link's clear labeling helps guide ABI on what to do next.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: Although ABI will know they are on the right path by clicking on "Visa Overview," the page they land on contains an overwhelming amount of information that is not well-organized. ABI's comprehensive information processing style may make it difficult for them to sift through the dense text to find the specific information they need. Additionally, ABI's low computer self-efficacy might cause them to feel uncertain and overwhelmed by the volume and presentation of the information, making it hard for them to feel confident that they have all the necessary details. This setup does not cater well to ABI's process-oriented learning style, as it lacks clear, step-by-step guidance.</t>
+Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the text to find the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary details. The sheer volume of information without clear, concise guidance can hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO1.xlsx
+++ b/outputs/POMPANO1.xlsx
@@ -424,99 +424,106 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, Abi would likely have thought of looking for visa information as a step toward attending the conference, given her cautious and comprehensive information processing style. Looking at the conference website's page, there is information about "Travel Support" under the "Attending" section, which would be a logical place to look for visa-related information. 
-Abi's characteristics suggest she:
-1. Is thorough in her approach to problem-solving
-2. Likes to gather comprehensive information before proceeding
-3. Prefers to minimize risks and avoid mistakes
-Given that she is a Chinese citizen living in the US (non-permanent resident), visa requirements would be an essential consideration for traveling to Montreal, Canada. Finding visa information would be a critical early step in her planning process to:
-- Ensure she can legally enter Canada
-- Understand the application process and timeline
-- Identify any required documentation
-- Avoid potential travel issues
-The website's organization appears to have relevant sections where she would look for this information, particularly under "Travel Support" and possibly "Registration," making this a natural step in her planning process.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Attitude Towards Risk
+Why: 
+- Given ABI's comprehensive information processing style, she would naturally look for visa information on the conference website as a first logical step since she needs to attend the conference in Montreal
+- ABI is motivated to find this information as it's crucial for her attendance and she needs to understand the complete process before proceeding
+- Being risk-averse, ABI would want to ensure she has all the necessary visa information before making any travel commitments or conference arrangements
+- As someone who prefers to gather complete information before acting, checking the conference website for official visa guidance would be a natural first step in her planning process
+The subgoal aligns well with ABI's careful and methodical approach to gathering information, especially for something as important as international travel requirements.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Looking at this situation and the ICSE 2019 Montreal conference website, Abi might face some uncertainty at this step for several reasons:
-1. The "Attending" menu item is not immediately obvious as the place to find visa information - it's just one of several navigation items at the top, and doesn't explicitly mention "visa" or "travel documents."
-2. As someone who needs specific visa information being a Chinese citizen traveling from the US to Canada, Abi would likely want to be very thorough and careful about finding the correct visa requirements. She might hesitate between different menu options since visa information could potentially be under:
-- "Attending"
-- "Organization"
-- Or possibly even "Travel Support" (which is not visible in the main navigation)
-3. Given Abi's learning style (preferring comprehensive information and being process-oriented), she may feel uncertain about whether clicking "Attending" will give her all the visa-related information she needs.
-While clicking "Attending" is actually the correct action here, Abi would likely approach this with some hesitation and might want to explore multiple sections to ensure she doesn't miss any critical visa-related information. This aligns with her characteristic of being risk-averse and thorough when it comes to important tasks like visa applications.
-The interface could be more supportive of users like Abi by having a more explicit indication of where to find visa and travel documentation requirements, perhaps with a dedicated "Travel &amp; Visa Information" section or clear breadcrumbs leading to this information.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why:
+- The "Attending" section in the navigation menu is clearly visible and logically suggests information for conference attendees
+- Given ABI's comprehensive information processing style, she would notice that "Attending" is likely to contain important information for conference participants, including travel-related details
+- The term "Attending" is straightforward and non-technical, which aligns with ABI's lower computer self-efficacy as it doesn't require specialized knowledge
+- The menu item is presented in a standard website navigation format that ABI would be familiar with, making it a process-oriented choice that aligns with her learning style
+- Looking at the other menu options, "Attending" is the most logical choice for finding attendee-specific information like visa requirements</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Looking at the image after clicking "Attending", there is a menu that includes "Visas and Travel Authorizations" under the registration section, which indicates Abi is making progress toward finding visa information. 
-However, there are some visibility and feedback issues:
-1. While the option exists, it's nested within a dropdown menu rather than being immediately visible
-2. Abi would need to take an additional click to actually access the visa information
-3. Until actually clicking through to the visa page, Abi cannot be completely certain if this will contain all the specific information needed for a Chinese citizen traveling from the US to Canada
-So while Abi is moving in the right direction and there are signs of progress (finding a relevant visa/travel section), the interface could provide better immediate feedback and confirmation that this path will address their specific visa situation. They would need to click through to the actual visa information page to be fully confident they're getting what they need.
-The interface could be improved by:
-- Making visa/travel information more prominent given its importance for international attendees
-- Providing preview text or tooltips indicating what kind of visa information is available
-- Having clearer section headers or breadcrumbs to show the path to travel documentation</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why:
+- After clicking "Attending", ABI can see a dropdown menu that clearly shows "Visas and Travel Authorizations" as one of the options, which directly relates to her goal
+- This immediate feedback aligns with her comprehensive information processing style as she can see that this path will lead to the visa information she needs
+- The presence of related items like "Travel Support" in the same menu further confirms she's on the right track
+- The straightforward, non-technical language used in the menu items helps with her lower computer self-efficacy
+- The clear organization of travel-related items in the dropdown menu provides confirmation that she's making progress toward finding visa information
+- She is motivated to continue as she can see the exact option ("Visas and Travel Authorizations") that matches her goal</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, Abi can likely know what to do at this step because:
-1. The interface shows a clear menu item labeled "Visas and Travel Authorizations" under the Attending menu, which is directly relevant to what she's looking for.
-2. As a cautious and comprehensive problem solver (which are typical Abi characteristics), she would likely notice this menu item as it explicitly contains the word "Visa" which matches her current goal.
-3. The labeling is straightforward and unambiguous - "Visas and Travel Authorizations" clearly indicates it contains information about travel documentation requirements.
-4. The item's placement under the "Attending" menu is logical and where one would expect to find visa-related information for conference attendees.
-5. Given that Abi is known to prefer gathering comprehensive information before proceeding, this section would likely catch her attention as it promises to provide the official travel documentation guidance she needs as a Chinese citizen planning to attend a conference in Montreal, Canada.
-Therefore, this seems to be a clear and well-organized interface element that aligns well with Abi's information-seeking goals and problem-solving style.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why:
+- The "Visas and Travel Authorizations" link is clearly visible in the dropdown menu and directly relates to her goal
+- The label is straightforward and uses familiar terminology that ABI can understand, which helps with her lower computer self-efficacy
+- Given her comprehensive information processing style, she can see this is exactly what she's looking for without any ambiguity
+- She is motivated to click this link as it explicitly matches her goal of finding visa information
+- The placement of this option under "Attending" along with other travel-related items ("Travel Support") provides a logical context that makes it clear this is the right choice
+- The non-technical, clear labeling of the link removes any uncertainty about what clicking it will lead to, which is important for ABI's risk-averse nature</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yes, Abi will know they're making progress toward their goal for several reasons:
-1. The page header clearly shows "Visas and Travel Authorizations," confirming they're in the right place for visa information.
-2. The page provides relevant information about:
-- Arriving in Canada
-- Electronic Travel Authorization (ETA) requirements
-- Links to official Canadian government resources:
-  * List entry requirements by Countries
-  * ETA Overview
-  * Visa Overview
-3. There's a specific section about "Visa Invitation Letter" which is often required for conference visa applications.
-However, as a comprehensive processor, Abi might want to:
-- Check all the provided government links to ensure they have complete information
-- Double-check if there are specific requirements for Chinese citizens traveling from the US
-- Verify if they need both an ETA and a visa, or just one of them
-- Make note of the registration requirement for getting the invitation letter
-The page provides good foundational information but Abi would likely need to consult the linked government resources to get all the specific details for their situation as a Chinese citizen residing in the US.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Information Incompleteness)
+Why:
+- While the page shows visa-related information, it doesn't provide specific guidance for Chinese citizens living in the US, which is ABI's particular situation
+- Given ABI's comprehensive information processing style, she would find this information incomplete as it mainly focuses on ETA (which doesn't apply to her) and general visa invitation letter policies
+- The page provides links to external resources ("List entry requirements by Countries", "ETA Overview", "Visa Overview") without clear indication of which one would be most relevant for her specific case
+- With her low computer self-efficacy and risk-averse nature, the lack of clear, specific instructions for her situation would make her uncertain about whether she's getting the right information
+- The information about visa invitation letters being issued "only to attendees who have registered" creates a circular dependency that might confuse ABI - she needs visa information before registering, but needs to register to get visa support
+- None of the Above: The critical information specific to Chinese citizens applying from the US is missing, making it impossible for ABI to confirm she's getting all the information she needs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, clicking on "Visa Overview" would be a helpful step for Abi, for several reasons:
-1. The website clearly lists "Visa Overview" as one of the key links under the "Arriving in Canada" section, making it easy to find.
-2. Since Abi is a Chinese citizen living in the US (not a permanent resident), she will need specific visa information for entering Canada. The Visa Overview link would provide essential information about the visa requirements.
-3. The page already indicates that there are different rules for different visitors (mentioning Americans specifically), so Abi would want to know the specific requirements for her situation as a Chinese citizen.
-4. The information is organized in a logical way, with three clear links:
-   - List entry requirements by Countries
-   - ETA Overview
-   - Visa Overview
-Since Abi needs a visa rather than just an ETA (which is for visa-exempt countries), clicking on "Visa Overview" is the most relevant choice for her situation.
-This action shows comprehensive information-seeking behavior, which aligns with being thorough and careful about understanding the requirements for international travel.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why:
+- Given ABI's comprehensive information processing style, she would notice the "Visa Overview" link as one of the recommended resources to "Consult the following pages from the Canadian government"
+- The term "Visa Overview" is clear and non-technical, which aligns with her lower computer self-efficacy
+- The link appears in a structured, process-oriented way (as part of a list of official resources), which matches her learning style
+- The context clearly indicates these are official Canadian government resources about visas, giving ABI confidence that clicking this link will provide authoritative information
+- Since the current page doesn't provide specific information for her situation (Chinese citizen in US), she would be motivated to click on "Visa Overview" to get more comprehensive information</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO1.xlsx
+++ b/outputs/POMPANO1.xlsx
@@ -503,8 +503,8 @@
 Why:
 - While the page shows visa-related information, it doesn't provide specific guidance for Chinese citizens living in the US, which is ABI's particular situation
 - Given ABI's comprehensive information processing style, she would find this information incomplete as it mainly focuses on ETA (which doesn't apply to her) and general visa invitation letter policies
-- The page provides links to external resources ("List entry requirements by Countries", "ETA Overview", "Visa Overview") without clear indication of which one would be most relevant for her specific case
-- With her low computer self-efficacy and risk-averse nature, the lack of clear, specific instructions for her situation would make her uncertain about whether she's getting the right information
+- The page provides links to external resources ("List entry requirements by Countries", "ETA Overview", "Visa Overview") but doesn't give direct, clear instructions for her specific case
+- With her low computer self-efficacy and risk-averse nature, the lack of specific information about her situation would make her uncertain about whether she's getting the right information
 - The information about visa invitation letters being issued "only to attendees who have registered" creates a circular dependency that might confuse ABI - she needs visa information before registering, but needs to register to get visa support
 - None of the Above: The critical information specific to Chinese citizens applying from the US is missing, making it impossible for ABI to confirm she's getting all the information she needs</t>
         </is>
@@ -519,11 +519,12 @@
 2. Computer Self-Efficacy
 3. Learning Style
 Why:
-- Given ABI's comprehensive information processing style, she would notice the "Visa Overview" link as one of the recommended resources to "Consult the following pages from the Canadian government"
+- Given ABI's comprehensive information processing style, she would notice the "Visa Overview" link as one of the recommended resources under "Consult the following pages from the Canadian government"
 - The term "Visa Overview" is clear and non-technical, which aligns with her lower computer self-efficacy
-- The link appears in a structured, process-oriented way (as part of a list of official resources), which matches her learning style
-- The context clearly indicates these are official Canadian government resources about visas, giving ABI confidence that clicking this link will provide authoritative information
-- Since the current page doesn't provide specific information for her situation (Chinese citizen in US), she would be motivated to click on "Visa Overview" to get more comprehensive information</t>
+- The link appears in a logical sequence of resources, and its purpose is clearly explained (it's explicitly stated these are pages "about visas and ETA")
+- The process-oriented learning style of ABI aligns with following official government resources that are likely to provide step-by-step information
+- Since the current page doesn't provide specific information for her situation (Chinese citizen in US), she would be motivated to click on "Visa Overview" to get more comprehensive information
+- The link is presented in a familiar format (blue, underlined) which ABI would recognize as clickable from her previous experience</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO1.xlsx
+++ b/outputs/POMPANO1.xlsx
@@ -425,26 +425,26 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations 
-Why: ABI's motivation is to accomplish her task of finding visa information. It is logical for her to seek information from the conference website and aligns with her motivations facet</t>
+Facets: 1. Motivations
+Why: Abi is motivated to attend the ICSE conference, and looking for visa information is a logical step in planning her travel. The "Visas and Travel" link under the "Attending" section suggests that this is a relevant step toward achieving her goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 
-Why: The term "attending" is not familiar to ABI and it is not clear what is going to happen if she clicks it. ABI's lack of computer self-efficacy will deter her from clicking on it</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information, and the "Attending" section is logically related to her goal of attending the conference. The presence of relevant links like "Visas and Travel" under this section provides a clear indication of where to find the needed information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 6. None of the Above 
-Why: The page she landed on after clicking attending does not provide information on visa, which will disappoint ABI and make her realize she didn't do the right thing</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with "Visas and Travel Authorizations," which directly relates to her goal of finding visa information. This clear navigation step confirms she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 
-Why: ABI's motivation is to accomplish her task of finding visa information. It is logical for her to click on 'Visa' link to seek visa information which aligns with her motivations facet</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information, and the "Visas and Travel Authorizations" option is clearly labeled in the dropdown menu. This aligns with her goal, and she can confidently click it to proceed.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: She clicked on "Visa" because she was looking for visa information. ABI will be assured when she sees the page on visa because she is familiar with this information as her goal was to find visa information</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page with detailed information about visa requirements and the process for obtaining a visa invitation letter. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI's motivation is to find "visa information". So, she will have clicked on 'Visa' and landed on "Visa" related page. Now, "Visa Overview" looks like, it would provide the overview of the visa information, so as per her information processing style, ABI would like to click on it to get complete picture of all visa information</t>
+Why: Abi is motivated to gather comprehensive visa information. The "Visa Overview" link is clearly labeled and suggests it will provide detailed information, aligning with her goal of understanding the visa process.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI was looking to go through an overview of visa information as her goal was to find visa related information. By landing on the Overview page, she will be motivated to proceed further</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to extract the specific details she needs, and her low computer self-efficacy could lead to confusion about whether she has found all the necessary information.</t>
         </is>
       </c>
     </row>
